--- a/static/inputData/eqp.xlsx
+++ b/static/inputData/eqp.xlsx
@@ -87,9 +87,6 @@
     <t>AIR_VELOCITY</t>
   </si>
   <si>
-    <t>PARTICLR_COUNT</t>
-  </si>
-  <si>
     <t>PSG</t>
   </si>
   <si>
@@ -118,6 +115,9 @@
   </si>
   <si>
     <t>Equipment_Name</t>
+  </si>
+  <si>
+    <t>PARTICLE_COUNT</t>
   </si>
 </sst>
 </file>
@@ -459,7 +459,7 @@
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -473,7 +473,7 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -617,7 +617,7 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -625,7 +625,7 @@
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -633,31 +633,31 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
         <v>24</v>
-      </c>
-      <c r="B23" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -665,7 +665,7 @@
         <v>20</v>
       </c>
       <c r="B25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -673,7 +673,7 @@
         <v>20</v>
       </c>
       <c r="B26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
